--- a/src/main/resources/testData/TestDataGradeTwelve.xlsx
+++ b/src/main/resources/testData/TestDataGradeTwelve.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D618E2A2-93D9-0D4D-A049-BDB9B58C43AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCFC9E7-4EF3-954E-93A1-B1B8A46504D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
   <si>
     <t>Password</t>
   </si>
@@ -52,21 +52,6 @@
     <t>CustomerNumber</t>
   </si>
   <si>
-    <t>Joe Customer</t>
-  </si>
-  <si>
-    <t>syed.rcg</t>
-  </si>
-  <si>
-    <t>RCG1234</t>
-  </si>
-  <si>
-    <t>rcg@pcci.edu</t>
-  </si>
-  <si>
-    <t>RCG Testing</t>
-  </si>
-  <si>
     <t>Bible</t>
   </si>
   <si>
@@ -310,113 +295,13 @@
     <t>CartNumber</t>
   </si>
   <si>
-    <t>Grade 1 - Accredited</t>
-  </si>
-  <si>
-    <t>Grade 4 - Accredited</t>
-  </si>
-  <si>
-    <t>Grade 9</t>
-  </si>
-  <si>
-    <t>Grade 12</t>
-  </si>
-  <si>
-    <t>rcg+27584764@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584764</t>
-  </si>
-  <si>
-    <t>27584764</t>
-  </si>
-  <si>
-    <t>73976</t>
-  </si>
-  <si>
-    <t>ATM202112022308</t>
-  </si>
-  <si>
-    <t>ATM202112022308 ATM202112022308</t>
-  </si>
-  <si>
-    <t>rcg+27584765@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584765</t>
-  </si>
-  <si>
-    <t>27584765</t>
-  </si>
-  <si>
-    <t>73977</t>
-  </si>
-  <si>
-    <t>ATM202112022320</t>
-  </si>
-  <si>
-    <t>ATM202112022320 ATM202112022320</t>
-  </si>
-  <si>
-    <t>rcg+27584766@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584766</t>
-  </si>
-  <si>
-    <t>27584766</t>
-  </si>
-  <si>
-    <t>73978</t>
-  </si>
-  <si>
-    <t>ATM202112022334</t>
-  </si>
-  <si>
-    <t>ATM202112022334 ATM202112022334</t>
-  </si>
-  <si>
-    <t>rcg+27584769@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584769</t>
-  </si>
-  <si>
-    <t>27584769</t>
-  </si>
-  <si>
-    <t>73982</t>
-  </si>
-  <si>
-    <t>ATM202112030109</t>
-  </si>
-  <si>
-    <t>ATM202112030109 ATM202112030109</t>
-  </si>
-  <si>
     <t>event_7771002258369</t>
-  </si>
-  <si>
-    <t>Syed</t>
-  </si>
-  <si>
-    <t>rcg+27584774@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584774</t>
-  </si>
-  <si>
-    <t>27584774</t>
-  </si>
-  <si>
-    <t>74077</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -965,12 +850,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.75" collapsed="true"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -988,74 +873,26 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>27583950</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1067,16 +904,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.79296875" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
@@ -1093,90 +930,30 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="3">
-        <v>27583950</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>111</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1193,47 +970,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.83203125" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" width="25.83203125" collapsed="true"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="25.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2">
@@ -1245,16 +1022,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3">
@@ -1266,16 +1043,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4">
@@ -1287,16 +1064,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5">
@@ -1308,16 +1085,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6">
@@ -1329,16 +1106,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7">
@@ -1350,16 +1127,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8">
@@ -1371,10 +1148,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9">
@@ -1386,10 +1163,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10">
@@ -1415,46 +1192,46 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2">
@@ -1466,16 +1243,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3">
@@ -1487,16 +1264,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4">
@@ -1508,16 +1285,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5">
@@ -1529,16 +1306,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6">
@@ -1550,16 +1327,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7">
@@ -1571,16 +1348,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8">
@@ -1592,16 +1369,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9">
@@ -1613,16 +1390,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10">
@@ -1634,44 +1411,44 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21">
@@ -1683,16 +1460,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22">
@@ -1704,16 +1481,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23">
@@ -1725,16 +1502,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24">
@@ -1746,16 +1523,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25">
@@ -1767,16 +1544,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26">
@@ -1788,16 +1565,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27">
@@ -1809,16 +1586,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28">
@@ -1830,16 +1607,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29">
@@ -1851,51 +1628,51 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
         <v>83</v>
       </c>
-      <c r="D37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1903,19 +1680,19 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
         <v>84</v>
       </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" t="s">
-        <v>89</v>
-      </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1934,50 +1711,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2">
@@ -1989,16 +1766,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3">
@@ -2010,16 +1787,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4">
@@ -2031,16 +1808,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5">
@@ -2052,16 +1829,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6">
@@ -2102,31 +1879,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
       <c r="A1" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="b">
@@ -2135,10 +1912,10 @@
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="b">
@@ -2147,10 +1924,10 @@
     </row>
     <row r="4" spans="1:4" ht="16">
       <c r="A4" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="b">
@@ -2159,10 +1936,10 @@
     </row>
     <row r="5" spans="1:4" ht="16">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="b">
@@ -2171,10 +1948,10 @@
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="b">
@@ -2197,7 +1974,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.1640625" collapsed="true"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
@@ -2234,24 +2011,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B2" s="14">
         <v>20210329</v>
@@ -2262,7 +2039,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" s="15">
         <v>20210531</v>
@@ -2273,7 +2050,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4" s="14">
         <v>20210705</v>
@@ -2284,7 +2061,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="15">
         <v>20210906</v>
@@ -2295,7 +2072,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" s="14">
         <v>20211111</v>
@@ -2306,7 +2083,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="15">
         <v>20211124</v>
@@ -2317,7 +2094,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="14">
         <v>20211125</v>
@@ -2328,7 +2105,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9" s="15">
         <v>20211220</v>
@@ -2339,7 +2116,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B10" s="14">
         <v>20220117</v>
@@ -2350,7 +2127,7 @@
     </row>
     <row r="11" spans="1:3" ht="16" thickBot="1">
       <c r="A11" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B11" s="24">
         <v>20220221</v>

--- a/src/main/resources/testData/TestDataGradeTwelve.xlsx
+++ b/src/main/resources/testData/TestDataGradeTwelve.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
   <si>
     <t>Password</t>
   </si>
@@ -296,12 +296,61 @@
   </si>
   <si>
     <t>event_7771002258369</t>
+  </si>
+  <si>
+    <t>rcg+27585041@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585041</t>
+  </si>
+  <si>
+    <t>Joe Customer</t>
+  </si>
+  <si>
+    <t>27585041</t>
+  </si>
+  <si>
+    <t>rcg+27585052@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585052</t>
+  </si>
+  <si>
+    <t>27585052</t>
+  </si>
+  <si>
+    <t>rcg+27585057@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585057</t>
+  </si>
+  <si>
+    <t>27585057</t>
+  </si>
+  <si>
+    <t>rcg+27585102@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585102</t>
+  </si>
+  <si>
+    <t>27585102</t>
+  </si>
+  <si>
+    <t>rcg+27585106@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585106</t>
+  </si>
+  <si>
+    <t>27585106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -855,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.1953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -873,10 +922,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" s="8"/>
@@ -909,11 +966,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
@@ -970,10 +1027,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="25.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.83203125" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" width="25.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1192,9 +1249,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1711,13 +1768,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1879,9 +1936,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -1974,7 +2031,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
@@ -2011,8 +2068,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/main/resources/testData/TestDataGradeTwelve.xlsx
+++ b/src/main/resources/testData/TestDataGradeTwelve.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="131">
   <si>
     <t>Password</t>
   </si>
@@ -344,6 +344,87 @@
   </si>
   <si>
     <t>27585106</t>
+  </si>
+  <si>
+    <t>rcg+27585129@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585129</t>
+  </si>
+  <si>
+    <t>27585129</t>
+  </si>
+  <si>
+    <t>rcg+27585151@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585151</t>
+  </si>
+  <si>
+    <t>27585151</t>
+  </si>
+  <si>
+    <t>rcg+27585156@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585156</t>
+  </si>
+  <si>
+    <t>27585156</t>
+  </si>
+  <si>
+    <t>rcg+27585164@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585164</t>
+  </si>
+  <si>
+    <t>27585164</t>
+  </si>
+  <si>
+    <t>rcg+27585171@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585171</t>
+  </si>
+  <si>
+    <t>27585171</t>
+  </si>
+  <si>
+    <t>rcg+27585175@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585175</t>
+  </si>
+  <si>
+    <t>27585175</t>
+  </si>
+  <si>
+    <t>rcg+27585185@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585185</t>
+  </si>
+  <si>
+    <t>27585185</t>
+  </si>
+  <si>
+    <t>rcg+27585188@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585188</t>
+  </si>
+  <si>
+    <t>27585188</t>
+  </si>
+  <si>
+    <t>rcg+27585194@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585194</t>
+  </si>
+  <si>
+    <t>27585194</t>
   </si>
 </sst>
 </file>
@@ -923,16 +1004,16 @@
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16">

--- a/src/main/resources/testData/TestDataGradeTwelve.xlsx
+++ b/src/main/resources/testData/TestDataGradeTwelve.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t>Password</t>
   </si>
@@ -425,6 +425,51 @@
   </si>
   <si>
     <t>27585194</t>
+  </si>
+  <si>
+    <t>rcg+27585622@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585622</t>
+  </si>
+  <si>
+    <t>27585622</t>
+  </si>
+  <si>
+    <t>rcg+27585632@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585632</t>
+  </si>
+  <si>
+    <t>27585632</t>
+  </si>
+  <si>
+    <t>rcg+27585640@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585640</t>
+  </si>
+  <si>
+    <t>27585640</t>
+  </si>
+  <si>
+    <t>rcg+27585647@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27585647</t>
+  </si>
+  <si>
+    <t>27585647</t>
+  </si>
+  <si>
+    <t>ATM202202072215</t>
+  </si>
+  <si>
+    <t>ATM202202072215 ATM202202072215</t>
+  </si>
+  <si>
+    <t>Grade 12</t>
   </si>
 </sst>
 </file>
@@ -1004,16 +1049,16 @@
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16">
@@ -1047,7 +1092,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.13671875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
@@ -1090,8 +1135,18 @@
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
